--- a/nmadb/501320.xlsx
+++ b/nmadb/501320.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab\Dropbox\Network Meta-Analyses of  2013\NMA 2013\With outcome data available (28)\Dichotomous (16)\Study level (2)\Maria\Jinling\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="8595" windowHeight="11820"/>
   </bookViews>
@@ -16,22 +11,16 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Study</t>
   </si>
   <si>
-    <t>tA</t>
-  </si>
-  <si>
-    <t>tB</t>
-  </si>
-  <si>
     <t>Wermuth (1998)</t>
   </si>
   <si>
@@ -86,36 +75,29 @@
     <t>treatments</t>
   </si>
   <si>
-    <t>log(OR)</t>
-  </si>
-  <si>
-    <t>se(logOR)</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t xml:space="preserve">
-1,3862944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-0,7998710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-0,5157009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-0,8213968</t>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>effect=log(OR)</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>se</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,26 +158,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -211,7 +192,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -253,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,10 +266,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,7 +300,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,85 +475,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="8" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-0.40047759999999999</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.97334489999999996</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.63127180000000005</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.028329</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>-0.40047759999999999</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.97334489999999996</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.63127180000000005</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.028329</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -582,19 +564,19 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>-0.69314719999999996</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>1.1823288000000001</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -602,19 +584,19 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
+      <c r="D5" s="9">
+        <v>1.3862943999999999</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.82139680000000004</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -625,21 +607,21 @@
       <c r="D6" s="4">
         <v>1.9286186999999999</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>0.83085620000000004</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5">
+    <row r="7" spans="1:9" s="2" customFormat="1">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="6">
@@ -648,13 +630,13 @@
       <c r="E7" s="6">
         <v>0.81404699999999997</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -662,19 +644,19 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>-0.89159809999999995</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>0.95948979999999995</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -682,48 +664,48 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>1.2974631000000001</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>0.75033190000000005</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="7">
-        <v>2</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
         <v>2.1972246000000002</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>0.89389149999999995</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="3">
         <v>5</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -731,25 +713,25 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>0.97455959999999997</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>0.50294709999999998</v>
       </c>
       <c r="F11">
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -757,52 +739,52 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>0.37156359999999999</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>0.50306669999999998</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5">
+    <row r="13" spans="1:9" s="2" customFormat="1">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="2">
         <v>2</v>
       </c>
       <c r="D13" s="6">
         <f>-0.597837</f>
         <v>-0.59783699999999995</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="E13" s="8">
+        <v>0.51570090000000002</v>
+      </c>
+      <c r="F13" s="2">
         <v>6</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="5">
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -810,25 +792,25 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>0.51282360000000005</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>0.28464909999999999</v>
       </c>
       <c r="F14">
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -836,25 +818,25 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>1.0260416000000001</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>0.89973800000000004</v>
       </c>
       <c r="F15">
         <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -862,19 +844,19 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>-0.18632960000000001</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>0.59607520000000003</v>
       </c>
       <c r="F16">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -882,19 +864,19 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4">
         <v>0.89199799999999996</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="4">
         <v>0.51495950000000001</v>
       </c>
       <c r="F17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -902,11 +884,11 @@
       <c r="C18">
         <v>4</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>-1.2378743999999999</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>25</v>
+      <c r="E18" s="5">
+        <v>0.799871</v>
       </c>
       <c r="F18">
         <v>11</v>
@@ -918,24 +900,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
